--- a/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943E081A-6992-45E3-A49A-000BD1DA1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A382B26-251A-4A65-B0FD-AB0EC82A0661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{785309A8-7BE7-48AD-8BAA-B91590984712}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1EC5666-10DE-4A74-B4D7-71E0E33190E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="507">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1549 +77,1489 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0838A2-2144-4361-A84A-F7AC8EA2B5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA39E75-AC79-4564-9352-0F87527A848A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2805,7 +2745,7 @@
         <v>26376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>95</v>
@@ -2856,7 +2796,7 @@
         <v>384600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>103</v>
@@ -2948,10 +2888,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2960,13 +2900,13 @@
         <v>36581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2921,13 @@
         <v>253440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -2996,13 +2936,13 @@
         <v>258934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -3011,13 +2951,13 @@
         <v>512374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3013,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3085,13 +3025,13 @@
         <v>26309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3100,13 +3040,13 @@
         <v>30648</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3115,13 +3055,13 @@
         <v>56958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3076,13 @@
         <v>588718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>591</v>
@@ -3151,13 +3091,13 @@
         <v>607571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3166,13 +3106,13 @@
         <v>1196288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3168,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3240,13 +3180,13 @@
         <v>42924</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -3255,13 +3195,13 @@
         <v>44320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -3270,13 +3210,13 @@
         <v>87244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3231,13 @@
         <v>699853</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>705</v>
@@ -3306,13 +3246,13 @@
         <v>739191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1396</v>
@@ -3321,13 +3261,13 @@
         <v>1439044</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3335,13 @@
         <v>177307</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -3410,13 +3350,13 @@
         <v>178944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -3425,13 +3365,13 @@
         <v>356251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,16 +3383,16 @@
         <v>3029</v>
       </c>
       <c r="D29" s="7">
-        <v>3098218</v>
+        <v>3098219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3125</v>
@@ -3461,28 +3401,28 @@
         <v>3200254</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>6154</v>
       </c>
       <c r="N29" s="7">
-        <v>6298471</v>
+        <v>6298472</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3434,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3524,7 +3464,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3562,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913F0F5B-6312-4B2A-B011-8822D3AD29E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A2A18-D47E-45A8-BFC8-4F70A55F7D1B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,10 +3781,10 @@
         <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3853,13 +3793,13 @@
         <v>46533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3814,13 @@
         <v>485659</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3889,13 +3829,13 @@
         <v>495070</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>907</v>
@@ -3904,13 +3844,13 @@
         <v>980730</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3918,13 @@
         <v>20500</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3993,13 +3933,13 @@
         <v>22358</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4008,13 +3948,13 @@
         <v>42857</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +3969,13 @@
         <v>302616</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -4044,13 +3984,13 @@
         <v>318662</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>595</v>
@@ -4059,13 +3999,13 @@
         <v>621279</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4073,13 @@
         <v>42195</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4148,13 +4088,13 @@
         <v>34978</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -4163,13 +4103,13 @@
         <v>77173</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4124,13 @@
         <v>622805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -4199,13 +4139,13 @@
         <v>637173</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>1175</v>
@@ -4214,13 +4154,13 @@
         <v>1259979</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4243,13 @@
         <v>13456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4318,7 +4258,7 @@
         <v>26779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>229</v>
@@ -4354,13 +4294,13 @@
         <v>206135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>383</v>
@@ -4369,7 +4309,7 @@
         <v>405430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>237</v>
@@ -4446,10 +4386,10 @@
         <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4458,13 +4398,13 @@
         <v>18795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -4473,13 +4413,13 @@
         <v>36505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4434,13 @@
         <v>256271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4509,13 +4449,13 @@
         <v>260345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>494</v>
@@ -4524,13 +4464,13 @@
         <v>516616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,7 +4526,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4598,13 +4538,13 @@
         <v>43094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -4613,13 +4553,13 @@
         <v>24810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -4628,13 +4568,13 @@
         <v>67904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4589,13 @@
         <v>619694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>613</v>
@@ -4664,13 +4604,13 @@
         <v>669043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
@@ -4679,13 +4619,13 @@
         <v>1288737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4681,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4753,13 +4693,13 @@
         <v>23797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4768,13 +4708,13 @@
         <v>29400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -4783,13 +4723,13 @@
         <v>53197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4744,13 @@
         <v>753175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -4819,13 +4759,13 @@
         <v>792279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -4834,13 +4774,13 @@
         <v>1545454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4848,13 @@
         <v>180488</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>159</v>
@@ -4923,13 +4863,13 @@
         <v>170460</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -4938,13 +4878,13 @@
         <v>350949</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4899,13 @@
         <v>3239515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>3130</v>
@@ -4974,13 +4914,13 @@
         <v>3378710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M29" s="7">
         <v>6167</v>
@@ -4989,13 +4929,13 @@
         <v>6618223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C900383F-2C6F-412F-BC69-55438E27AEF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071B0F12-9168-4885-94B7-0FAFF1AF04D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5092,7 +5032,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5199,13 +5139,13 @@
         <v>12874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5214,13 +5154,13 @@
         <v>13039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5229,13 +5169,13 @@
         <v>25913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5190,13 @@
         <v>280887</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -5265,13 +5205,13 @@
         <v>275664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5280,13 +5220,13 @@
         <v>556551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5294,13 @@
         <v>35364</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5369,13 +5309,13 @@
         <v>28885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5384,13 +5324,13 @@
         <v>64249</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5345,13 @@
         <v>467211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -5420,13 +5360,13 @@
         <v>494199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>898</v>
@@ -5435,13 +5375,13 @@
         <v>961410</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5449,13 @@
         <v>17705</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5524,13 +5464,13 @@
         <v>9592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -5539,13 +5479,13 @@
         <v>27297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5500,13 @@
         <v>300860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>324</v>
@@ -5575,13 +5515,13 @@
         <v>326717</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>639</v>
@@ -5590,13 +5530,13 @@
         <v>627577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5604,13 @@
         <v>24682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5679,13 +5619,13 @@
         <v>41009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5694,13 +5634,13 @@
         <v>65690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5655,13 @@
         <v>345282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -5730,13 +5670,13 @@
         <v>346274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -5745,13 +5685,13 @@
         <v>691557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5759,13 @@
         <v>12741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5834,13 +5774,13 @@
         <v>9559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5849,13 +5789,13 @@
         <v>22301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5810,13 @@
         <v>198480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5885,13 +5825,13 @@
         <v>209028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5900,13 +5840,13 @@
         <v>407507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5914,13 @@
         <v>12751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5989,13 +5929,13 @@
         <v>20686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -6004,13 +5944,13 @@
         <v>33437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +5965,13 @@
         <v>250372</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -6040,13 +5980,13 @@
         <v>252429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -6055,13 +5995,13 @@
         <v>502801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,7 +6057,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6129,13 +6069,13 @@
         <v>35368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6144,13 +6084,13 @@
         <v>25547</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -6159,13 +6099,13 @@
         <v>60915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6120,13 @@
         <v>621190</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>84</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6195,13 +6135,13 @@
         <v>665747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -6210,13 +6150,13 @@
         <v>1286937</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,7 +6212,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6284,13 +6224,13 @@
         <v>51615</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -6302,10 +6242,10 @@
         <v>54</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>398</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6314,13 +6254,13 @@
         <v>94282</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6275,13 @@
         <v>726968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>403</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>719</v>
@@ -6353,7 +6293,7 @@
         <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>406</v>
@@ -6442,7 +6382,7 @@
         <v>410</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>411</v>
@@ -6454,13 +6394,13 @@
         <v>190984</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>412</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6472,10 +6412,10 @@
         <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>414</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,7 +6436,7 @@
         <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="H29" s="7">
         <v>3176</v>
@@ -6505,13 +6445,13 @@
         <v>3353558</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6523,10 +6463,10 @@
         <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33604B69-D41A-4B2C-96F0-C4DD6E739729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6541836E-4694-43E6-A908-CEC8C1BF85CE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6730,13 +6670,13 @@
         <v>15313</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>421</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -6745,13 +6685,13 @@
         <v>11047</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>422</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>423</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6760,13 +6700,13 @@
         <v>26360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,10 +6724,10 @@
         <v>407</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
@@ -6796,13 +6736,13 @@
         <v>260356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
@@ -6811,13 +6751,13 @@
         <v>505340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>432</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6825,13 @@
         <v>34004</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
+        <v>412</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -6900,13 +6840,13 @@
         <v>25968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>434</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -6915,13 +6855,13 @@
         <v>59972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6876,13 @@
         <v>484223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>678</v>
@@ -6951,13 +6891,13 @@
         <v>527248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>439</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
       <c r="M8" s="7">
         <v>1028</v>
@@ -6966,13 +6906,13 @@
         <v>1011471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +6980,13 @@
         <v>20699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -7055,13 +6995,13 @@
         <v>26943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>446</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>441</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -7070,13 +7010,13 @@
         <v>47642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>443</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7031,13 @@
         <v>301541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
@@ -7106,13 +7046,13 @@
         <v>346341</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>817</v>
@@ -7121,13 +7061,13 @@
         <v>647882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7135,13 @@
         <v>20175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -7210,13 +7150,13 @@
         <v>20466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -7225,13 +7165,13 @@
         <v>40641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>459</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7186,13 @@
         <v>302065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
@@ -7261,13 +7201,13 @@
         <v>408090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -7276,13 +7216,13 @@
         <v>710155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,13 +7290,13 @@
         <v>6668</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7365,13 +7305,13 @@
         <v>10180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7383,10 +7323,10 @@
         <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>473</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,13 +7341,13 @@
         <v>190080</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
@@ -7416,13 +7356,13 @@
         <v>221723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
@@ -7431,13 +7371,13 @@
         <v>411803</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,13 +7445,13 @@
         <v>17303</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -7520,13 +7460,13 @@
         <v>14840</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -7535,13 +7475,13 @@
         <v>32143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7496,13 @@
         <v>259920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -7571,13 +7511,13 @@
         <v>260782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>760</v>
@@ -7586,13 +7526,13 @@
         <v>520702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,7 +7588,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7660,13 +7600,13 @@
         <v>36089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7678,10 +7618,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -7690,13 +7630,13 @@
         <v>76166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7651,13 @@
         <v>591665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
@@ -7729,10 +7669,10 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="M23" s="7">
         <v>1450</v>
@@ -7741,13 +7681,13 @@
         <v>1355791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,7 +7743,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7815,13 +7755,13 @@
         <v>48702</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>502</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -7830,13 +7770,13 @@
         <v>49818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>335</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -7845,13 +7785,13 @@
         <v>98520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,13 +7806,13 @@
         <v>810726</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>488</v>
+        <v>388</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>982</v>
@@ -7881,13 +7821,13 @@
         <v>814499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>1682</v>
@@ -7896,13 +7836,13 @@
         <v>1625226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,13 +7910,13 @@
         <v>198953</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>513</v>
+        <v>414</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>514</v>
+        <v>334</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -7985,13 +7925,13 @@
         <v>199339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="M28" s="7">
         <v>615</v>
@@ -8000,13 +7940,13 @@
         <v>398292</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>502</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>518</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>519</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,10 +7964,10 @@
         <v>407</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>520</v>
+        <v>342</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>521</v>
+        <v>419</v>
       </c>
       <c r="H29" s="7">
         <v>5014</v>
@@ -8036,13 +7976,13 @@
         <v>3603166</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="M29" s="7">
         <v>8119</v>
@@ -8051,13 +7991,13 @@
         <v>6788370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>296</v>
+        <v>506</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>525</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>526</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A382B26-251A-4A65-B0FD-AB0EC82A0661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D808AAD-9E6A-4DC4-81C3-51B0DC92C1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1EC5666-10DE-4A74-B4D7-71E0E33190E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{101E14DC-C240-4D78-A678-AC7ACBE99831}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="531">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1489 +77,1561 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>93,93%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +2043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA39E75-AC79-4564-9352-0F87527A848A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651F920-59EA-4029-8045-828ACB413D3E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2745,13 +2817,13 @@
         <v>26376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2838,13 @@
         <v>187293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2781,13 +2853,13 @@
         <v>197307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -2796,13 +2868,13 @@
         <v>384600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2930,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2870,13 +2942,13 @@
         <v>17371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2885,13 +2957,13 @@
         <v>19210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2900,13 +2972,13 @@
         <v>36581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2993,13 @@
         <v>253440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -2936,13 +3008,13 @@
         <v>258934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -2951,13 +3023,13 @@
         <v>512374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +3085,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3025,13 +3097,13 @@
         <v>26309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3040,13 +3112,13 @@
         <v>30648</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3055,13 +3127,13 @@
         <v>56958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3148,13 @@
         <v>588718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>591</v>
@@ -3091,13 +3163,13 @@
         <v>607571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3106,13 +3178,13 @@
         <v>1196288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,7 +3240,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3180,13 +3252,13 @@
         <v>42924</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -3195,13 +3267,13 @@
         <v>44320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -3210,13 +3282,13 @@
         <v>87244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3303,13 @@
         <v>699853</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>705</v>
@@ -3246,13 +3318,13 @@
         <v>739191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>1396</v>
@@ -3261,13 +3333,13 @@
         <v>1439044</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3407,13 @@
         <v>177307</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -3350,13 +3422,13 @@
         <v>178944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -3365,13 +3437,13 @@
         <v>356251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,16 +3455,16 @@
         <v>3029</v>
       </c>
       <c r="D29" s="7">
-        <v>3098219</v>
+        <v>3098218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>3125</v>
@@ -3401,13 +3473,13 @@
         <v>3200254</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>6154</v>
@@ -3416,13 +3488,13 @@
         <v>6298472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3506,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3478,7 +3550,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A2A18-D47E-45A8-BFC8-4F70A55F7D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5F96F4-19C6-409E-9884-D0835FAC2584}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3519,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3624,39 +3696,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,39 +3741,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,39 +3786,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3835,13 @@
         <v>19868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3778,13 +3850,13 @@
         <v>26665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3793,13 +3865,13 @@
         <v>46533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3886,13 @@
         <v>485659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3829,13 +3901,13 @@
         <v>495070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>907</v>
@@ -3844,13 +3916,13 @@
         <v>980730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3990,13 @@
         <v>20500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3933,13 +4005,13 @@
         <v>22358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3948,13 +4020,13 @@
         <v>42857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +4041,13 @@
         <v>302616</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -3984,13 +4056,13 @@
         <v>318662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>595</v>
@@ -3999,13 +4071,13 @@
         <v>621279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4145,13 @@
         <v>42195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4088,13 +4160,13 @@
         <v>34978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -4103,13 +4175,13 @@
         <v>77173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4196,13 @@
         <v>622805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -4139,13 +4211,13 @@
         <v>637173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1175</v>
@@ -4154,13 +4226,13 @@
         <v>1259979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4300,13 @@
         <v>13324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4243,13 +4315,13 @@
         <v>13456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4258,13 +4330,13 @@
         <v>26779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4351,13 @@
         <v>199294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -4294,13 +4366,13 @@
         <v>206135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>383</v>
@@ -4309,13 +4381,13 @@
         <v>405430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4443,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4383,13 +4455,13 @@
         <v>17710</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4398,13 +4470,13 @@
         <v>18795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -4413,13 +4485,13 @@
         <v>36505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4506,13 @@
         <v>256271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4449,13 +4521,13 @@
         <v>260345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>494</v>
@@ -4464,13 +4536,13 @@
         <v>516616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,7 +4598,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4538,13 +4610,13 @@
         <v>43094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -4553,13 +4625,13 @@
         <v>24810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -4568,13 +4640,13 @@
         <v>67904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4661,13 @@
         <v>619694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>613</v>
@@ -4604,13 +4676,13 @@
         <v>669043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
@@ -4619,13 +4691,13 @@
         <v>1288737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4753,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4693,13 +4765,13 @@
         <v>23797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4708,13 +4780,13 @@
         <v>29400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -4723,13 +4795,13 @@
         <v>53197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4816,13 @@
         <v>753175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -4759,13 +4831,13 @@
         <v>792279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -4774,13 +4846,13 @@
         <v>1545454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4920,13 @@
         <v>180488</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H28" s="7">
         <v>159</v>
@@ -4863,13 +4935,13 @@
         <v>170460</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -4878,13 +4950,13 @@
         <v>350949</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4971,13 @@
         <v>3239515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="H29" s="7">
         <v>3130</v>
@@ -4914,13 +4986,13 @@
         <v>3378710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M29" s="7">
         <v>6167</v>
@@ -4929,13 +5001,13 @@
         <v>6618223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,7 +5063,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071B0F12-9168-4885-94B7-0FAFF1AF04D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B666E809-446D-464D-B515-F9661A1C2E18}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5032,7 +5104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5139,13 +5211,13 @@
         <v>12874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5154,13 +5226,13 @@
         <v>13039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5169,13 +5241,13 @@
         <v>25913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5262,13 @@
         <v>280887</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -5205,13 +5277,13 @@
         <v>275664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5220,13 +5292,13 @@
         <v>556551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5366,13 @@
         <v>35364</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5309,13 +5381,13 @@
         <v>28885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5324,13 +5396,13 @@
         <v>64249</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5417,13 @@
         <v>467211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -5360,13 +5432,13 @@
         <v>494199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>898</v>
@@ -5375,13 +5447,13 @@
         <v>961410</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5521,13 @@
         <v>17705</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5464,13 +5536,13 @@
         <v>9592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -5479,13 +5551,13 @@
         <v>27297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5572,13 @@
         <v>300860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>324</v>
@@ -5515,13 +5587,13 @@
         <v>326717</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>639</v>
@@ -5530,13 +5602,13 @@
         <v>627577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5676,13 @@
         <v>24682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5619,13 +5691,13 @@
         <v>41009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5634,13 +5706,13 @@
         <v>65690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5727,13 @@
         <v>345282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -5670,13 +5742,13 @@
         <v>346274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -5685,13 +5757,13 @@
         <v>691557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5831,13 @@
         <v>12741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5774,13 +5846,13 @@
         <v>9559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5789,13 +5861,13 @@
         <v>22301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5882,13 @@
         <v>198480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5825,13 +5897,13 @@
         <v>209028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5840,13 +5912,13 @@
         <v>407507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5974,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5914,13 +5986,13 @@
         <v>12751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5929,13 +6001,13 @@
         <v>20686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>369</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -5944,13 +6016,13 @@
         <v>33437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +6037,13 @@
         <v>250372</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -5980,13 +6052,13 @@
         <v>252429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>375</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -5995,13 +6067,13 @@
         <v>502801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,7 +6129,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6069,13 +6141,13 @@
         <v>35368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6084,13 +6156,13 @@
         <v>25547</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -6099,13 +6171,13 @@
         <v>60915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6192,13 @@
         <v>621190</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6135,13 +6207,13 @@
         <v>665747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -6150,13 +6222,13 @@
         <v>1286937</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>393</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,7 +6284,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6224,13 +6296,13 @@
         <v>51615</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -6242,10 +6314,10 @@
         <v>54</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6254,13 +6326,13 @@
         <v>94282</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6347,13 @@
         <v>726968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>719</v>
@@ -6293,10 +6365,10 @@
         <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -6305,13 +6377,13 @@
         <v>1510468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6451,13 @@
         <v>203100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>35</v>
+        <v>422</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -6394,13 +6466,13 @@
         <v>190984</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>412</v>
+        <v>247</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6409,13 +6481,13 @@
         <v>394084</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>19</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6502,13 @@
         <v>3191250</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="H29" s="7">
         <v>3176</v>
@@ -6445,13 +6517,13 @@
         <v>3353558</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>417</v>
+        <v>256</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6460,13 +6532,13 @@
         <v>6544808</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>28</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>419</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6594,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6541836E-4694-43E6-A908-CEC8C1BF85CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2216A2-64A4-4362-A171-1E1CFCC4468E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6563,7 +6635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6670,13 +6742,13 @@
         <v>15313</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>422</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -6685,13 +6757,13 @@
         <v>11047</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>432</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6700,13 +6772,13 @@
         <v>26360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6793,13 @@
         <v>244985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>425</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
@@ -6736,13 +6808,13 @@
         <v>260356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
@@ -6751,13 +6823,13 @@
         <v>505340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,13 +6897,13 @@
         <v>34004</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -6840,13 +6912,13 @@
         <v>25968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -6855,13 +6927,13 @@
         <v>59972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>432</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,13 +6948,13 @@
         <v>484223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="H8" s="7">
         <v>678</v>
@@ -6891,13 +6963,13 @@
         <v>527248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="M8" s="7">
         <v>1028</v>
@@ -6906,13 +6978,13 @@
         <v>1011471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>437</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +7052,13 @@
         <v>20699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6995,13 +7067,13 @@
         <v>26943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -7010,13 +7082,13 @@
         <v>47642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7103,13 @@
         <v>301541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
@@ -7046,13 +7118,13 @@
         <v>346341</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>817</v>
@@ -7061,13 +7133,13 @@
         <v>647882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7207,13 @@
         <v>20175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -7150,13 +7222,13 @@
         <v>20466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>452</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>453</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -7165,13 +7237,13 @@
         <v>40641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>472</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7258,13 @@
         <v>302065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
@@ -7201,13 +7273,13 @@
         <v>408090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -7216,13 +7288,13 @@
         <v>710155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7362,13 @@
         <v>6668</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>461</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7305,13 +7377,13 @@
         <v>10180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7320,13 +7392,13 @@
         <v>16848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7413,13 @@
         <v>190080</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
@@ -7356,13 +7428,13 @@
         <v>221723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
@@ -7371,13 +7443,13 @@
         <v>411803</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,7 +7505,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7445,13 +7517,13 @@
         <v>17303</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -7460,13 +7532,13 @@
         <v>14840</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -7475,13 +7547,13 @@
         <v>32143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,13 +7568,13 @@
         <v>259920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -7511,13 +7583,13 @@
         <v>260782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>760</v>
@@ -7526,13 +7598,13 @@
         <v>520702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7660,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7600,13 +7672,13 @@
         <v>36089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>386</v>
+        <v>497</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7618,10 +7690,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -7630,13 +7702,13 @@
         <v>76166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7723,13 @@
         <v>591665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>332</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
@@ -7669,10 +7741,10 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="M23" s="7">
         <v>1450</v>
@@ -7681,13 +7753,13 @@
         <v>1355791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7815,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7755,13 +7827,13 @@
         <v>48702</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>463</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>505</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>381</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -7770,13 +7842,13 @@
         <v>49818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>335</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -7785,13 +7857,13 @@
         <v>98520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,13 +7878,13 @@
         <v>810726</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>388</v>
+        <v>512</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>982</v>
@@ -7821,13 +7893,13 @@
         <v>814499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>1682</v>
@@ -7836,13 +7908,13 @@
         <v>1625226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7982,13 @@
         <v>198953</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -7925,13 +7997,13 @@
         <v>199339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="M28" s="7">
         <v>615</v>
@@ -7940,13 +8012,13 @@
         <v>398292</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +8033,13 @@
         <v>3185205</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="H29" s="7">
         <v>5014</v>
@@ -7976,13 +8048,13 @@
         <v>3603166</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>8119</v>
@@ -7991,13 +8063,13 @@
         <v>6788370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>530</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8125,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D808AAD-9E6A-4DC4-81C3-51B0DC92C1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A15708-5274-4A99-A3E1-6C32C8FF74CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{101E14DC-C240-4D78-A678-AC7ACBE99831}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F3F7F43-8266-46C7-9312-E2969BC9B21C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="527">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1567 +71,1555 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>93,94%</t>
   </si>
   <si>
     <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651F920-59EA-4029-8045-828ACB413D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C31CF28-5914-407D-A464-FFE32C4FBDA4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2817,13 +2805,13 @@
         <v>26376</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2826,13 @@
         <v>187293</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2853,13 +2841,13 @@
         <v>197307</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -2868,13 +2856,13 @@
         <v>384600</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2918,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2942,13 +2930,13 @@
         <v>17371</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2957,13 +2945,13 @@
         <v>19210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2972,13 +2960,13 @@
         <v>36581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2981,13 @@
         <v>253440</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -3008,13 +2996,13 @@
         <v>258934</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -3023,13 +3011,13 @@
         <v>512374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3073,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3097,13 +3085,13 @@
         <v>26309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3112,13 +3100,13 @@
         <v>30648</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3127,13 +3115,13 @@
         <v>56958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3136,13 @@
         <v>588718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>591</v>
@@ -3163,13 +3151,13 @@
         <v>607571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3178,13 +3166,13 @@
         <v>1196288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3228,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3252,13 +3240,13 @@
         <v>42924</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -3267,13 +3255,13 @@
         <v>44320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -3282,13 +3270,13 @@
         <v>87244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3291,13 @@
         <v>699853</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>705</v>
@@ -3318,13 +3306,13 @@
         <v>739191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1396</v>
@@ -3333,13 +3321,13 @@
         <v>1439044</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3395,13 @@
         <v>177307</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -3422,13 +3410,13 @@
         <v>178944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -3437,13 +3425,13 @@
         <v>356251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3446,13 @@
         <v>3098218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>3125</v>
@@ -3473,28 +3461,28 @@
         <v>3200254</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>6154</v>
       </c>
       <c r="N29" s="7">
-        <v>6298472</v>
+        <v>6298471</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,7 +3524,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3550,7 +3538,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5F96F4-19C6-409E-9884-D0835FAC2584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF9EDA1-2C41-49C2-9A68-C9BDB1AEE866}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3591,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3696,39 +3684,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,39 +3729,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,39 +3774,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3823,13 @@
         <v>19868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3850,13 +3838,13 @@
         <v>26665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3865,13 +3853,13 @@
         <v>46533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3874,13 @@
         <v>485659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3901,13 +3889,13 @@
         <v>495070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>907</v>
@@ -3916,13 +3904,13 @@
         <v>980730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3978,13 @@
         <v>20500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4005,13 +3993,13 @@
         <v>22358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4020,13 +4008,13 @@
         <v>42857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4029,13 @@
         <v>302616</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -4056,13 +4044,13 @@
         <v>318662</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>595</v>
@@ -4178,10 +4166,10 @@
         <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4184,13 @@
         <v>622805</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -4211,13 +4199,13 @@
         <v>637173</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1175</v>
@@ -4226,13 +4214,13 @@
         <v>1259979</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4288,13 @@
         <v>13324</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4315,13 +4303,13 @@
         <v>13456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4330,13 +4318,13 @@
         <v>26779</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4339,13 @@
         <v>199294</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -4366,13 +4354,13 @@
         <v>206135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>383</v>
@@ -4381,13 +4369,13 @@
         <v>405430</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,7 +4431,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4455,13 +4443,13 @@
         <v>17710</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4470,13 +4458,13 @@
         <v>18795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -4485,13 +4473,13 @@
         <v>36505</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4494,13 @@
         <v>256271</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4521,7 +4509,7 @@
         <v>260345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>252</v>
@@ -4598,7 +4586,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4613,10 +4601,10 @@
         <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -4625,13 +4613,13 @@
         <v>24810</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -4640,13 +4628,13 @@
         <v>67904</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,7 +4655,7 @@
         <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>613</v>
@@ -4676,13 +4664,13 @@
         <v>669043</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
@@ -4691,10 +4679,10 @@
         <v>1288737</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>272</v>
@@ -4753,7 +4741,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4771,7 +4759,7 @@
         <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4780,13 +4768,13 @@
         <v>29400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -4795,13 +4783,13 @@
         <v>53197</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4804,13 @@
         <v>753175</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -4831,13 +4819,13 @@
         <v>792279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -4846,13 +4834,13 @@
         <v>1545454</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4908,13 @@
         <v>180488</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H28" s="7">
         <v>159</v>
@@ -4935,13 +4923,13 @@
         <v>170460</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -4950,13 +4938,13 @@
         <v>350949</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4959,13 @@
         <v>3239515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>3130</v>
@@ -4986,13 +4974,13 @@
         <v>3378710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M29" s="7">
         <v>6167</v>
@@ -5001,13 +4989,13 @@
         <v>6618223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,7 +5051,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5087,7 +5075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B666E809-446D-464D-B515-F9661A1C2E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C713315E-149E-48E2-921B-1D04960DC33A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5104,7 +5092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5211,13 +5199,13 @@
         <v>12874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5226,13 +5214,13 @@
         <v>13039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5241,13 +5229,13 @@
         <v>25913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5250,13 @@
         <v>280887</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -5277,13 +5265,13 @@
         <v>275664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5295,7 +5283,7 @@
         <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>315</v>
@@ -5396,13 +5384,13 @@
         <v>64249</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5405,13 @@
         <v>467211</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -5432,13 +5420,13 @@
         <v>494199</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>898</v>
@@ -5447,13 +5435,13 @@
         <v>961410</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5509,13 @@
         <v>17705</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5536,13 +5524,13 @@
         <v>9592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -5551,13 +5539,13 @@
         <v>27297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5560,13 @@
         <v>300860</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>324</v>
@@ -5587,13 +5575,13 @@
         <v>326717</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>639</v>
@@ -5602,7 +5590,7 @@
         <v>627577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>346</v>
@@ -5709,10 +5697,10 @@
         <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5715,13 @@
         <v>345282</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -5742,13 +5730,13 @@
         <v>346274</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -5757,13 +5745,13 @@
         <v>691557</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5819,13 @@
         <v>12741</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5846,13 +5834,13 @@
         <v>9559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5861,13 +5849,13 @@
         <v>22301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5870,13 @@
         <v>198480</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5897,13 +5885,13 @@
         <v>209028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5912,13 +5900,13 @@
         <v>407507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +5962,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5986,13 +5974,13 @@
         <v>12751</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6001,13 +5989,13 @@
         <v>20686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -6016,13 +6004,13 @@
         <v>33437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6025,13 @@
         <v>250372</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -6052,13 +6040,13 @@
         <v>252429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="M20" s="7">
         <v>491</v>
@@ -6067,13 +6055,13 @@
         <v>502801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6117,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6141,13 +6129,13 @@
         <v>35368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6156,13 +6144,13 @@
         <v>25547</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -6171,13 +6159,13 @@
         <v>60915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6180,13 @@
         <v>621190</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6207,13 +6195,13 @@
         <v>665747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>220</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -6222,13 +6210,13 @@
         <v>1286937</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,7 +6272,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6296,13 +6284,13 @@
         <v>51615</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>408</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -6314,10 +6302,10 @@
         <v>54</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>411</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6326,13 +6314,13 @@
         <v>94282</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6335,13 @@
         <v>726968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>415</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>405</v>
       </c>
       <c r="H26" s="7">
         <v>719</v>
@@ -6365,10 +6353,10 @@
         <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -6377,13 +6365,13 @@
         <v>1510468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6439,13 @@
         <v>203100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>422</v>
+        <v>261</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -6466,13 +6454,13 @@
         <v>190984</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6481,13 +6469,13 @@
         <v>394084</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6490,13 @@
         <v>3191250</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>3176</v>
@@ -6517,13 +6505,13 @@
         <v>3353558</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6532,10 +6520,10 @@
         <v>6544808</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>63</v>
@@ -6594,7 +6582,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6618,7 +6606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2216A2-64A4-4362-A171-1E1CFCC4468E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC52F6C-D088-409D-AA62-DE59C83DEB8E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6635,7 +6623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6742,13 +6730,13 @@
         <v>15313</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -6757,13 +6745,13 @@
         <v>11047</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6772,13 +6760,13 @@
         <v>26360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>437</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6781,13 @@
         <v>244985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
@@ -6808,13 +6796,13 @@
         <v>260356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
@@ -6823,13 +6811,13 @@
         <v>505340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>443</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6885,13 @@
         <v>34004</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>445</v>
+        <v>279</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -6912,13 +6900,13 @@
         <v>25968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>434</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -6927,13 +6915,13 @@
         <v>59972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6936,13 @@
         <v>484223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <v>678</v>
@@ -6963,13 +6951,13 @@
         <v>527248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>439</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>453</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>1028</v>
@@ -6978,13 +6966,13 @@
         <v>1011471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>441</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,13 +7040,13 @@
         <v>20699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -7067,13 +7055,13 @@
         <v>26943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>446</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>458</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -7082,13 +7070,13 @@
         <v>47642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>460</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7091,13 @@
         <v>301541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
@@ -7118,13 +7106,13 @@
         <v>346341</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>452</v>
       </c>
       <c r="M11" s="7">
         <v>817</v>
@@ -7133,13 +7121,13 @@
         <v>647882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>468</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,13 +7195,13 @@
         <v>20175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -7222,13 +7210,13 @@
         <v>20466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>458</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -7237,13 +7225,13 @@
         <v>40641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,13 +7246,13 @@
         <v>302065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
@@ -7273,13 +7261,13 @@
         <v>408090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -7288,13 +7276,13 @@
         <v>710155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7350,13 @@
         <v>6668</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>467</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7377,13 +7365,13 @@
         <v>10180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7392,13 +7380,13 @@
         <v>16848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,13 +7401,13 @@
         <v>190080</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>475</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
@@ -7428,13 +7416,13 @@
         <v>221723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
@@ -7443,13 +7431,13 @@
         <v>411803</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,7 +7493,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7517,13 +7505,13 @@
         <v>17303</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -7532,13 +7520,13 @@
         <v>14840</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -7547,13 +7535,13 @@
         <v>32143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7556,13 @@
         <v>259920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -7583,13 +7571,13 @@
         <v>260782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M20" s="7">
         <v>760</v>
@@ -7598,13 +7586,13 @@
         <v>520702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,7 +7648,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7672,13 +7660,13 @@
         <v>36089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>498</v>
+        <v>229</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7690,10 +7678,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -7702,13 +7690,13 @@
         <v>76166</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7711,13 @@
         <v>591665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>238</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
@@ -7741,10 +7729,10 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>254</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>1450</v>
@@ -7753,13 +7741,13 @@
         <v>1355791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,7 +7803,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7827,13 +7815,13 @@
         <v>48702</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>501</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -7842,13 +7830,13 @@
         <v>49818</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -7857,13 +7845,13 @@
         <v>98520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,13 +7866,13 @@
         <v>810726</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H26" s="7">
         <v>982</v>
@@ -7893,13 +7881,13 @@
         <v>814499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M26" s="7">
         <v>1682</v>
@@ -7908,13 +7896,13 @@
         <v>1625226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,13 +7970,13 @@
         <v>198953</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>348</v>
+        <v>514</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -7997,13 +7985,13 @@
         <v>199339</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M28" s="7">
         <v>615</v>
@@ -8012,13 +8000,13 @@
         <v>398292</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>523</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>518</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8021,13 @@
         <v>3185205</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H29" s="7">
         <v>5014</v>
@@ -8048,13 +8036,13 @@
         <v>3603166</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M29" s="7">
         <v>8119</v>
@@ -8063,13 +8051,13 @@
         <v>6788370</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>529</v>
+        <v>296</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,7 +8113,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A15708-5274-4A99-A3E1-6C32C8FF74CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5EC163-1DD2-4EF5-9998-2F8BEF086CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F3F7F43-8266-46C7-9312-E2969BC9B21C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B9A21CF-0AEC-41DD-A158-9EBAD95C6228}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="546">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -557,7 +557,58 @@
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>3,93%</t>
@@ -662,964 +713,970 @@
     <t>95,39%</t>
   </si>
   <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C31CF28-5914-407D-A464-FFE32C4FBDA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EC083-1A57-4778-8A49-9996F164F2E3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3458,7 +3515,7 @@
         <v>3125</v>
       </c>
       <c r="I29" s="7">
-        <v>3200254</v>
+        <v>3200253</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>165</v>
@@ -3509,7 +3566,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3562,7 +3619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF9EDA1-2C41-49C2-9A68-C9BDB1AEE866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC185DE5-989B-4845-BA27-3DB7ACDD495E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3680,43 +3737,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14700</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15653</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30354</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,43 +3788,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="D5" s="7">
+        <v>276318</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="I5" s="7">
+        <v>268524</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>505</v>
+      </c>
+      <c r="N5" s="7">
+        <v>544841</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,43 +3839,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>291018</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I6" s="7">
+        <v>284177</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N6" s="7">
+        <v>575195</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3898,13 @@
         <v>19868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3838,13 +3913,13 @@
         <v>26665</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3853,13 +3928,13 @@
         <v>46533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3949,13 @@
         <v>485659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -3889,10 +3964,10 @@
         <v>495070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -3904,13 +3979,13 @@
         <v>980730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +4053,13 @@
         <v>20500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3993,13 +4068,13 @@
         <v>22358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4008,13 +4083,13 @@
         <v>42857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4104,13 @@
         <v>302616</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -4044,13 +4119,13 @@
         <v>318662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>595</v>
@@ -4059,13 +4134,13 @@
         <v>621279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,49 +4202,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>42195</v>
+        <v>27495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>34978</v>
+        <v>19324</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>77173</v>
+        <v>46819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4253,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>585</v>
+        <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>622805</v>
+        <v>346487</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>590</v>
+        <v>351</v>
       </c>
       <c r="I14" s="7">
-        <v>637173</v>
+        <v>368650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>1175</v>
+        <v>670</v>
       </c>
       <c r="N14" s="7">
-        <v>1259979</v>
+        <v>715137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,10 +4304,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>623</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>665000</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4244,10 +4319,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>623</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>672151</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4259,10 +4334,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1246</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1337152</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4288,13 +4363,13 @@
         <v>13324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4306,10 +4381,10 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4318,13 +4393,13 @@
         <v>26779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4414,13 @@
         <v>199294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -4357,10 +4432,10 @@
         <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>383</v>
@@ -4369,13 +4444,13 @@
         <v>405430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4518,13 @@
         <v>17710</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4458,13 +4533,13 @@
         <v>18795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -4473,13 +4548,13 @@
         <v>36505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4569,13 @@
         <v>256271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4509,13 +4584,13 @@
         <v>260345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>494</v>
@@ -4524,13 +4599,13 @@
         <v>516616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4673,13 @@
         <v>43094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -4613,13 +4688,13 @@
         <v>24810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -4628,13 +4703,13 @@
         <v>67904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,10 +4724,10 @@
         <v>619694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>133</v>
@@ -4664,13 +4739,13 @@
         <v>669043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>1190</v>
@@ -4679,13 +4754,13 @@
         <v>1288737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4828,13 @@
         <v>23797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4768,13 +4843,13 @@
         <v>29400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -4783,13 +4858,13 @@
         <v>53197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4879,13 @@
         <v>753175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -4819,13 +4894,13 @@
         <v>792279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -4834,13 +4909,13 @@
         <v>1545454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4983,13 @@
         <v>180488</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>159</v>
@@ -4926,10 +5001,10 @@
         <v>126</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>325</v>
@@ -4938,13 +5013,13 @@
         <v>350949</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +5034,13 @@
         <v>3239515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>3130</v>
@@ -4977,25 +5052,25 @@
         <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>6167</v>
       </c>
       <c r="N29" s="7">
-        <v>6618223</v>
+        <v>6618224</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,7 +5112,7 @@
         <v>6492</v>
       </c>
       <c r="N30" s="7">
-        <v>6969172</v>
+        <v>6969173</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5075,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C713315E-149E-48E2-921B-1D04960DC33A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEC35D-1129-4496-A065-231477649029}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5092,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5199,13 +5274,13 @@
         <v>12874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5214,13 +5289,13 @@
         <v>13039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5229,10 +5304,10 @@
         <v>25913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>59</v>
@@ -5250,13 +5325,13 @@
         <v>280887</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -5265,13 +5340,13 @@
         <v>275664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5280,13 +5355,13 @@
         <v>556551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5429,13 @@
         <v>35364</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5369,13 +5444,13 @@
         <v>28885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5384,13 +5459,13 @@
         <v>64249</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5480,13 @@
         <v>467211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -5420,13 +5495,13 @@
         <v>494199</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>898</v>
@@ -5435,13 +5510,13 @@
         <v>961410</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5584,13 @@
         <v>17705</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5527,10 +5602,10 @@
         <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -5539,13 +5614,13 @@
         <v>27297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5635,13 @@
         <v>300860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>324</v>
@@ -5578,10 +5653,10 @@
         <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>639</v>
@@ -5590,13 +5665,13 @@
         <v>627577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5739,13 @@
         <v>24682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5679,13 +5754,13 @@
         <v>41009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5694,13 +5769,13 @@
         <v>65690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5790,13 @@
         <v>345282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -5730,13 +5805,13 @@
         <v>346274</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -5745,10 +5820,10 @@
         <v>691557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>134</v>
@@ -5819,13 +5894,13 @@
         <v>12741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5834,13 +5909,13 @@
         <v>9559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5849,13 +5924,13 @@
         <v>22301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5945,13 @@
         <v>198480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -5885,13 +5960,13 @@
         <v>209028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5900,13 +5975,13 @@
         <v>407507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +6049,13 @@
         <v>12751</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5989,13 +6064,13 @@
         <v>20686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -6004,7 +6079,7 @@
         <v>33437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>123</v>
@@ -6025,13 +6100,13 @@
         <v>250372</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -6040,10 +6115,10 @@
         <v>252429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>43</v>
@@ -6055,7 +6130,7 @@
         <v>502801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>101</v>
@@ -6129,13 +6204,13 @@
         <v>35368</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6144,13 +6219,13 @@
         <v>25547</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -6159,13 +6234,13 @@
         <v>60915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6255,13 @@
         <v>621190</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>361</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>625</v>
@@ -6195,13 +6270,13 @@
         <v>665747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -6210,13 +6285,13 @@
         <v>1286937</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,10 +6362,10 @@
         <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -6302,7 +6377,7 @@
         <v>54</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>146</v>
@@ -6314,13 +6389,13 @@
         <v>94282</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,10 +6413,10 @@
         <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>719</v>
@@ -6356,7 +6431,7 @@
         <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -6365,13 +6440,13 @@
         <v>1510468</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +6514,13 @@
         <v>203100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -6454,13 +6529,13 @@
         <v>190984</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6469,13 +6544,13 @@
         <v>394084</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6565,13 @@
         <v>3191250</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
         <v>3176</v>
@@ -6505,13 +6580,13 @@
         <v>3353558</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6520,10 +6595,10 @@
         <v>6544808</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>63</v>
@@ -6606,7 +6681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC52F6C-D088-409D-AA62-DE59C83DEB8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3511889-4C73-4D82-B602-15C81B7D43DA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6623,7 +6698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6727,46 +6802,46 @@
         <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>15313</v>
+        <v>16736</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>421</v>
+        <v>293</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>11047</v>
+        <v>11500</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>26360</v>
+        <v>28236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,46 +6853,46 @@
         <v>307</v>
       </c>
       <c r="D5" s="7">
-        <v>244985</v>
+        <v>294707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>518</v>
       </c>
       <c r="I5" s="7">
-        <v>260356</v>
+        <v>278135</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
       </c>
       <c r="N5" s="7">
-        <v>505340</v>
+        <v>572841</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>431</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,7 +6904,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6844,7 +6919,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6859,7 +6934,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6882,46 +6957,46 @@
         <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>34004</v>
+        <v>32144</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>25968</v>
+        <v>23420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>59972</v>
+        <v>55564</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,46 +7008,46 @@
         <v>350</v>
       </c>
       <c r="D8" s="7">
-        <v>484223</v>
+        <v>485249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>456</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>458</v>
       </c>
       <c r="H8" s="7">
         <v>678</v>
       </c>
       <c r="I8" s="7">
-        <v>527248</v>
+        <v>490305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>440</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>460</v>
       </c>
       <c r="M8" s="7">
         <v>1028</v>
       </c>
       <c r="N8" s="7">
-        <v>1011471</v>
+        <v>975554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,7 +7059,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6999,7 +7074,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7014,7 +7089,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7037,46 +7112,46 @@
         <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>20699</v>
+        <v>19663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>26943</v>
+        <v>24689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>446</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>47642</v>
+        <v>44352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,46 +7163,46 @@
         <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>301541</v>
+        <v>296387</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>488</v>
       </c>
       <c r="I11" s="7">
-        <v>346341</v>
+        <v>324439</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>473</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>452</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>817</v>
       </c>
       <c r="N11" s="7">
-        <v>647882</v>
+        <v>620826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,7 +7214,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7154,7 +7229,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7169,7 +7244,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7192,46 +7267,46 @@
         <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>20175</v>
+        <v>19223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>20466</v>
+        <v>18635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
       </c>
       <c r="N13" s="7">
-        <v>40641</v>
+        <v>37858</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,46 +7318,46 @@
         <v>261</v>
       </c>
       <c r="D14" s="7">
-        <v>302065</v>
+        <v>293334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
       </c>
       <c r="I14" s="7">
-        <v>408090</v>
+        <v>457083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>486</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
       </c>
       <c r="N14" s="7">
-        <v>710155</v>
+        <v>750416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,7 +7369,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7309,7 +7384,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7324,7 +7399,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7347,46 +7422,46 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>6668</v>
+        <v>6111</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>10180</v>
+        <v>9129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>16848</v>
+        <v>15240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,46 +7473,46 @@
         <v>266</v>
       </c>
       <c r="D17" s="7">
-        <v>190080</v>
+        <v>172631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
       </c>
       <c r="I17" s="7">
-        <v>221723</v>
+        <v>199527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="M17" s="7">
         <v>734</v>
       </c>
       <c r="N17" s="7">
-        <v>411803</v>
+        <v>372158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,7 +7524,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7464,7 +7539,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7479,7 +7554,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7502,46 +7577,46 @@
         <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>17303</v>
+        <v>16569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>14840</v>
+        <v>13825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
       </c>
       <c r="N19" s="7">
-        <v>32143</v>
+        <v>30394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>485</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,46 +7628,46 @@
         <v>337</v>
       </c>
       <c r="D20" s="7">
-        <v>259920</v>
+        <v>253067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>28</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
       </c>
       <c r="I20" s="7">
-        <v>260782</v>
+        <v>243231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="M20" s="7">
         <v>760</v>
       </c>
       <c r="N20" s="7">
-        <v>520702</v>
+        <v>496298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,7 +7679,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7619,7 +7694,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7634,7 +7709,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7657,46 +7732,46 @@
         <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>36089</v>
+        <v>34248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>229</v>
+        <v>515</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
       </c>
       <c r="I22" s="7">
-        <v>40077</v>
+        <v>36343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
       </c>
       <c r="N22" s="7">
-        <v>76166</v>
+        <v>70591</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>337</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>518</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,46 +7783,46 @@
         <v>555</v>
       </c>
       <c r="D23" s="7">
-        <v>591665</v>
+        <v>590031</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>521</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
       </c>
       <c r="I23" s="7">
-        <v>764126</v>
+        <v>812922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="M23" s="7">
         <v>1450</v>
       </c>
       <c r="N23" s="7">
-        <v>1355791</v>
+        <v>1402953</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>346</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,7 +7834,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7774,7 +7849,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7789,7 +7864,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7812,46 +7887,46 @@
         <v>62</v>
       </c>
       <c r="D25" s="7">
-        <v>48702</v>
+        <v>41860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
       </c>
       <c r="I25" s="7">
-        <v>49818</v>
+        <v>41989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>39</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
       </c>
       <c r="N25" s="7">
-        <v>98520</v>
+        <v>83849</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,46 +7938,46 @@
         <v>700</v>
       </c>
       <c r="D26" s="7">
-        <v>810726</v>
+        <v>886860</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>982</v>
       </c>
       <c r="I26" s="7">
-        <v>814499</v>
+        <v>672251</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>424</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>49</v>
       </c>
       <c r="M26" s="7">
         <v>1682</v>
       </c>
       <c r="N26" s="7">
-        <v>1625226</v>
+        <v>1559111</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>534</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>416</v>
+        <v>535</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,7 +7989,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7929,7 +8004,7 @@
         <v>1059</v>
       </c>
       <c r="I27" s="7">
-        <v>864317</v>
+        <v>714240</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7944,7 +8019,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1723746</v>
+        <v>1642960</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7967,46 +8042,46 @@
         <v>270</v>
       </c>
       <c r="D28" s="7">
-        <v>198953</v>
+        <v>186554</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
       </c>
       <c r="I28" s="7">
-        <v>199339</v>
+        <v>179530</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="M28" s="7">
         <v>615</v>
       </c>
       <c r="N28" s="7">
-        <v>398292</v>
+        <v>366084</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>539</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>518</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,46 +8093,46 @@
         <v>3105</v>
       </c>
       <c r="D29" s="7">
-        <v>3185205</v>
+        <v>3272266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>521</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>5014</v>
       </c>
       <c r="I29" s="7">
-        <v>3603166</v>
+        <v>3477891</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="M29" s="7">
         <v>8119</v>
       </c>
       <c r="N29" s="7">
-        <v>6788370</v>
+        <v>6750157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>296</v>
+        <v>544</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>526</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,7 +8144,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8084,7 +8159,7 @@
         <v>5359</v>
       </c>
       <c r="I30" s="7">
-        <v>3802505</v>
+        <v>3657421</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8099,7 +8174,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7186662</v>
+        <v>7116241</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
